--- a/MainTop/30.06.2025 Макс ВБ/spros_sorted.xlsx
+++ b/MainTop/30.06.2025 Макс ВБ/spros_sorted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\30.06.2025 Макс ВБ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1661A1-72EA-4E45-AA5E-4D4018ABE4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA63D81-C943-4553-9AE4-5B5038A39D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="80">
   <si>
     <t>Артикул</t>
   </si>
@@ -245,9 +245,6 @@
   </si>
   <si>
     <t>Термобирки Гарри Поттер</t>
-  </si>
-  <si>
-    <t>Термобирки Щенячий патруль</t>
   </si>
   <si>
     <t>Термобирки Спанч боб, Соник ежик</t>
@@ -646,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2329,16 +2326,16 @@
         <v>0.1</v>
       </c>
       <c r="C65" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E65" s="3">
         <v>30</v>
       </c>
       <c r="F65" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>64</v>
@@ -2358,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="D66" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E66" s="3">
         <v>30</v>
@@ -2374,80 +2371,54 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B67" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C67" s="3">
+      <c r="B67" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="C67" s="4">
         <v>1</v>
       </c>
-      <c r="D67" s="3">
-        <v>8</v>
-      </c>
-      <c r="E67" s="3">
-        <v>30</v>
-      </c>
-      <c r="F67" s="3">
-        <v>2</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H67" s="3" t="s">
+      <c r="D67" s="4">
+        <v>35</v>
+      </c>
+      <c r="E67" s="4">
+        <v>30</v>
+      </c>
+      <c r="F67" s="4">
+        <v>36</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H67" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C68" s="4">
+        <v>3</v>
+      </c>
+      <c r="D68" s="4">
+        <v>16</v>
+      </c>
+      <c r="E68" s="4">
+        <v>30</v>
+      </c>
+      <c r="F68" s="4">
+        <v>4</v>
+      </c>
+      <c r="G68" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B68" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="C68" s="4">
-        <v>1</v>
-      </c>
-      <c r="D68" s="4">
-        <v>35</v>
-      </c>
-      <c r="E68" s="4">
-        <v>30</v>
-      </c>
-      <c r="F68" s="4">
-        <v>36</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="H68" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B69" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="C69" s="4">
-        <v>3</v>
-      </c>
-      <c r="D69" s="4">
-        <v>16</v>
-      </c>
-      <c r="E69" s="4">
-        <v>30</v>
-      </c>
-      <c r="F69" s="4">
-        <v>4</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H69" s="4" t="s">
         <v>10</v>
       </c>
     </row>
